--- a/bank.xlsx
+++ b/bank.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26915"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sinp/MyProject/python/xml2xls/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="银行间" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -153,6 +166,10 @@
   </si>
   <si>
     <t>修改2108的购回处理标志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -164,20 +181,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -199,7 +216,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -235,38 +252,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -274,14 +291,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -304,37 +321,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -421,14 +438,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -463,12 +480,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -498,12 +515,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -707,36 +724,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>4</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -750,21 +776,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -803,13 +829,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>40910</v>
       </c>
       <c r="E2" t="s">
@@ -836,21 +862,21 @@
       <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>41201</v>
       </c>
       <c r="E3" t="s">
@@ -874,20 +900,20 @@
       <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>41204</v>
       </c>
       <c r="E4" t="s">
@@ -914,17 +940,17 @@
       <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>41205</v>
       </c>
       <c r="E5" t="s">
@@ -951,17 +977,17 @@
       <c r="L5" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>41208</v>
       </c>
       <c r="E6" t="s">
@@ -988,19 +1014,19 @@
       <c r="L6" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="81" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>41202</v>
       </c>
       <c r="E7" t="s">
@@ -1024,20 +1050,20 @@
       <c r="K7" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>41203</v>
       </c>
       <c r="E8" t="s">
@@ -1064,12 +1090,12 @@
       <c r="L8" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C9" s="14"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1088,7 +1114,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
